--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/LF DiffDAGOLS 2010-01-31 to 2020-02-29 stable0.2.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/LF DiffDAGOLS 2010-01-31 to 2020-02-29 stable0.2.xlsx
@@ -43,52 +43,52 @@
     <t>LF Lag</t>
   </si>
   <si>
-    <t>-0.285***</t>
-  </si>
-  <si>
-    <t>-1.009*</t>
-  </si>
-  <si>
-    <t>0.063***</t>
-  </si>
-  <si>
-    <t>0.009***</t>
-  </si>
-  <si>
-    <t>-0.018**</t>
-  </si>
-  <si>
-    <t>-0.419***</t>
-  </si>
-  <si>
-    <t>-0.005**</t>
-  </si>
-  <si>
-    <t>0.001***</t>
-  </si>
-  <si>
-    <t>0.257*</t>
-  </si>
-  <si>
-    <t>1.624</t>
-  </si>
-  <si>
-    <t>0.318**</t>
-  </si>
-  <si>
-    <t>-0.012**</t>
-  </si>
-  <si>
-    <t>-4.225**</t>
-  </si>
-  <si>
-    <t>-0.753</t>
-  </si>
-  <si>
-    <t>0.337</t>
-  </si>
-  <si>
-    <t>0.111</t>
+    <t>-0.29***</t>
+  </si>
+  <si>
+    <t>-1.02*</t>
+  </si>
+  <si>
+    <t>0.06***</t>
+  </si>
+  <si>
+    <t>0.01***</t>
+  </si>
+  <si>
+    <t>-0.02***</t>
+  </si>
+  <si>
+    <t>-0.42***</t>
+  </si>
+  <si>
+    <t>-0.0*</t>
+  </si>
+  <si>
+    <t>0.0***</t>
+  </si>
+  <si>
+    <t>0.26*</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>0.32***</t>
+  </si>
+  <si>
+    <t>-0.01*</t>
+  </si>
+  <si>
+    <t>-3.7*</t>
+  </si>
+  <si>
+    <t>-1.49</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.1</t>
   </si>
 </sst>
 </file>
